--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3356202252641869</v>
+        <v>0.3407354241124098</v>
       </c>
       <c r="C2">
-        <v>0.5928587576195743</v>
+        <v>0.5844350863438295</v>
       </c>
       <c r="D2">
-        <v>0.4584919220784366</v>
+        <v>0.4442199068852112</v>
       </c>
       <c r="E2">
-        <v>0.6771203158069005</v>
+        <v>0.6664982422221466</v>
       </c>
       <c r="F2">
-        <v>0.6051406135328216</v>
+        <v>0.5885134887136687</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1712144369470395</v>
+        <v>0.1726228500093137</v>
       </c>
       <c r="C3">
-        <v>0.4703345540709669</v>
+        <v>0.4551251828485784</v>
       </c>
       <c r="D3">
-        <v>0.3274311726269336</v>
+        <v>0.3113871153733175</v>
       </c>
       <c r="E3">
-        <v>0.5722160191981115</v>
+        <v>0.5580207123156966</v>
       </c>
       <c r="F3">
-        <v>0.5628046628567783</v>
+        <v>0.5460334188492619</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2052140296463584</v>
+        <v>0.2034452847961829</v>
       </c>
       <c r="C4">
-        <v>0.4129590618352454</v>
+        <v>0.3989700209739589</v>
       </c>
       <c r="D4">
-        <v>0.2759875817817813</v>
+        <v>0.2615574828328119</v>
       </c>
       <c r="E4">
-        <v>0.5253452024924005</v>
+        <v>0.5114269085928232</v>
       </c>
       <c r="F4">
-        <v>0.4994661510779522</v>
+        <v>0.483661004847352</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3686754340014196</v>
+        <v>0.3635533387143693</v>
       </c>
       <c r="C5">
-        <v>0.3990435851935776</v>
+        <v>0.3920234804570175</v>
       </c>
       <c r="D5">
-        <v>0.2123063178966429</v>
+        <v>0.2041752638615354</v>
       </c>
       <c r="E5">
-        <v>0.4607670972374687</v>
+        <v>0.4518575703266854</v>
       </c>
       <c r="F5">
-        <v>0.2860783027059473</v>
+        <v>0.2771362769876616</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3416177284902267</v>
+        <v>0.3372887961726861</v>
       </c>
       <c r="C6">
-        <v>0.3737651016367561</v>
+        <v>0.367293011109447</v>
       </c>
       <c r="D6">
-        <v>0.2000603999351366</v>
+        <v>0.1918266328756511</v>
       </c>
       <c r="E6">
-        <v>0.447281119582681</v>
+        <v>0.4379801740668761</v>
       </c>
       <c r="F6">
-        <v>0.2996161884848424</v>
+        <v>0.289203773041539</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3537110464573531</v>
+        <v>0.3465491651461942</v>
       </c>
       <c r="C7">
-        <v>0.3951183322932405</v>
+        <v>0.3849987877080897</v>
       </c>
       <c r="D7">
-        <v>0.2147683252291936</v>
+        <v>0.2040158891459988</v>
       </c>
       <c r="E7">
-        <v>0.4634310361091428</v>
+        <v>0.4516811808632266</v>
       </c>
       <c r="F7">
-        <v>0.3116540110124916</v>
+        <v>0.3006242113637049</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3810201517188532</v>
+        <v>0.3728115640212805</v>
       </c>
       <c r="C8">
-        <v>0.4291394299079367</v>
+        <v>0.4172293592727421</v>
       </c>
       <c r="D8">
-        <v>0.2292927385919417</v>
+        <v>0.2174429248205509</v>
       </c>
       <c r="E8">
-        <v>0.4788452136045026</v>
+        <v>0.4663077576242443</v>
       </c>
       <c r="F8">
-        <v>0.3029246217240137</v>
+        <v>0.2915344481050866</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4264875228932328</v>
+        <v>0.4140746927647911</v>
       </c>
       <c r="C9">
-        <v>0.4469028042152688</v>
+        <v>0.4327887006433242</v>
       </c>
       <c r="D9">
-        <v>0.2370347769370399</v>
+        <v>0.2237006186653438</v>
       </c>
       <c r="E9">
-        <v>0.4868621744775824</v>
+        <v>0.4729699976376343</v>
       </c>
       <c r="F9">
-        <v>0.2462874067604301</v>
+        <v>0.2387302033153843</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3953120245283929</v>
+        <v>0.3853625486457603</v>
       </c>
       <c r="C10">
-        <v>0.4125110239430875</v>
+        <v>0.4009980026591189</v>
       </c>
       <c r="D10">
-        <v>0.2047112188605603</v>
+        <v>0.1935302347147137</v>
       </c>
       <c r="E10">
-        <v>0.4524502390987989</v>
+        <v>0.4399207141232539</v>
       </c>
       <c r="F10">
-        <v>0.2319952636581273</v>
+        <v>0.2225500727871226</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3698907362562401</v>
+        <v>0.3626069129865366</v>
       </c>
       <c r="C11">
-        <v>0.3826203554660405</v>
+        <v>0.3740635702753569</v>
       </c>
       <c r="D11">
-        <v>0.185020683246865</v>
+        <v>0.1753426339092577</v>
       </c>
       <c r="E11">
-        <v>0.4301403064662332</v>
+        <v>0.4187393388604153</v>
       </c>
       <c r="F11">
-        <v>0.2328663077572986</v>
+        <v>0.2207534083381827</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3407354241124098</v>
+        <v>0.2352347881312385</v>
       </c>
       <c r="C2">
-        <v>0.5844350863438295</v>
+        <v>0.7011352911275793</v>
       </c>
       <c r="D2">
-        <v>0.4442199068852112</v>
+        <v>0.754111145231435</v>
       </c>
       <c r="E2">
-        <v>0.6664982422221466</v>
+        <v>0.868395730776836</v>
       </c>
       <c r="F2">
-        <v>0.5885134887136687</v>
+        <v>0.8601628886204244</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1726228500093137</v>
+        <v>0.2672786791899959</v>
       </c>
       <c r="C3">
-        <v>0.4551251828485784</v>
+        <v>0.45307994943011</v>
       </c>
       <c r="D3">
-        <v>0.3113871153733175</v>
+        <v>0.2955295970660748</v>
       </c>
       <c r="E3">
-        <v>0.5580207123156966</v>
+        <v>0.5436263395624561</v>
       </c>
       <c r="F3">
-        <v>0.5460334188492619</v>
+        <v>0.4879522889190182</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2034452847961829</v>
+        <v>0.3111056731803871</v>
       </c>
       <c r="C4">
-        <v>0.3989700209739589</v>
+        <v>0.3624139282624727</v>
       </c>
       <c r="D4">
-        <v>0.2615574828328119</v>
+        <v>0.1723564222806536</v>
       </c>
       <c r="E4">
-        <v>0.5114269085928232</v>
+        <v>0.4151583099019621</v>
       </c>
       <c r="F4">
-        <v>0.483661004847352</v>
+        <v>0.2839148837627348</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3635533387143693</v>
+        <v>0.3455294579606332</v>
       </c>
       <c r="C5">
-        <v>0.3920234804570175</v>
+        <v>0.3658231501549597</v>
       </c>
       <c r="D5">
-        <v>0.2041752638615354</v>
+        <v>0.1878025140189348</v>
       </c>
       <c r="E5">
-        <v>0.4518575703266854</v>
+        <v>0.4333618742101511</v>
       </c>
       <c r="F5">
-        <v>0.2771362769876616</v>
+        <v>0.2707369064906118</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3372887961726861</v>
+        <v>0.3584323639489301</v>
       </c>
       <c r="C6">
-        <v>0.367293011109447</v>
+        <v>0.3839945786029612</v>
       </c>
       <c r="D6">
-        <v>0.1918266328756511</v>
+        <v>0.2002730478501564</v>
       </c>
       <c r="E6">
-        <v>0.4379801740668761</v>
+        <v>0.4475187681540925</v>
       </c>
       <c r="F6">
-        <v>0.289203773041539</v>
+        <v>0.2780688952452576</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3465491651461942</v>
+        <v>0.364459496889083</v>
       </c>
       <c r="C7">
-        <v>0.3849987877080897</v>
+        <v>0.4106453173185426</v>
       </c>
       <c r="D7">
-        <v>0.2040158891459988</v>
+        <v>0.2107924313882408</v>
       </c>
       <c r="E7">
-        <v>0.4516811808632266</v>
+        <v>0.4591213689083103</v>
       </c>
       <c r="F7">
-        <v>0.3006242113637049</v>
+        <v>0.2906174726197602</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3728115640212805</v>
+        <v>0.4143658927697875</v>
       </c>
       <c r="C8">
-        <v>0.4172293592727421</v>
+        <v>0.4310987738402203</v>
       </c>
       <c r="D8">
-        <v>0.2174429248205509</v>
+        <v>0.221430687247661</v>
       </c>
       <c r="E8">
-        <v>0.4663077576242443</v>
+        <v>0.4705642222350324</v>
       </c>
       <c r="F8">
-        <v>0.2915344481050866</v>
+        <v>0.2329219787203619</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4140746927647911</v>
+        <v>0.3869142407525709</v>
       </c>
       <c r="C9">
-        <v>0.4327887006433242</v>
+        <v>0.4001865847611734</v>
       </c>
       <c r="D9">
-        <v>0.2237006186653438</v>
+        <v>0.1924388048854656</v>
       </c>
       <c r="E9">
-        <v>0.4729699976376343</v>
+        <v>0.4386784755210422</v>
       </c>
       <c r="F9">
-        <v>0.2387302033153843</v>
+        <v>0.2168174179053887</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3853625486457603</v>
+        <v>0.3617893501639269</v>
       </c>
       <c r="C10">
-        <v>0.4009980026591189</v>
+        <v>0.3734161284103805</v>
       </c>
       <c r="D10">
-        <v>0.1935302347147137</v>
+        <v>0.1744359538854561</v>
       </c>
       <c r="E10">
-        <v>0.4399207141232539</v>
+        <v>0.4176553051087178</v>
       </c>
       <c r="F10">
-        <v>0.2225500727871226</v>
+        <v>0.2199606530304394</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3626069129865366</v>
+        <v>0.3719529320823554</v>
       </c>
       <c r="C11">
-        <v>0.3740635702753569</v>
+        <v>0.3812107115717386</v>
       </c>
       <c r="D11">
-        <v>0.1753426339092577</v>
+        <v>0.1830055333568115</v>
       </c>
       <c r="E11">
-        <v>0.4187393388604153</v>
+        <v>0.4277914601260893</v>
       </c>
       <c r="F11">
-        <v>0.2207534083381827</v>
+        <v>0.2241397295910946</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2352347881312385</v>
+        <v>0.3407354241124098</v>
       </c>
       <c r="C2">
-        <v>0.7011352911275793</v>
+        <v>0.5844350863438295</v>
       </c>
       <c r="D2">
-        <v>0.754111145231435</v>
+        <v>0.4442199068852112</v>
       </c>
       <c r="E2">
-        <v>0.868395730776836</v>
+        <v>0.6664982422221466</v>
       </c>
       <c r="F2">
-        <v>0.8601628886204244</v>
+        <v>0.5885134887136687</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2672786791899959</v>
+        <v>0.1726228500093137</v>
       </c>
       <c r="C3">
-        <v>0.45307994943011</v>
+        <v>0.4551251828485784</v>
       </c>
       <c r="D3">
-        <v>0.2955295970660748</v>
+        <v>0.3113871153733175</v>
       </c>
       <c r="E3">
-        <v>0.5436263395624561</v>
+        <v>0.5580207123156966</v>
       </c>
       <c r="F3">
-        <v>0.4879522889190182</v>
+        <v>0.5460334188492619</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3111056731803871</v>
+        <v>0.2034452847961829</v>
       </c>
       <c r="C4">
-        <v>0.3624139282624727</v>
+        <v>0.3989700209739589</v>
       </c>
       <c r="D4">
-        <v>0.1723564222806536</v>
+        <v>0.2615574828328119</v>
       </c>
       <c r="E4">
-        <v>0.4151583099019621</v>
+        <v>0.5114269085928232</v>
       </c>
       <c r="F4">
-        <v>0.2839148837627348</v>
+        <v>0.483661004847352</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3455294579606332</v>
+        <v>0.3635533387143693</v>
       </c>
       <c r="C5">
-        <v>0.3658231501549597</v>
+        <v>0.3920234804570175</v>
       </c>
       <c r="D5">
-        <v>0.1878025140189348</v>
+        <v>0.2041752638615354</v>
       </c>
       <c r="E5">
-        <v>0.4333618742101511</v>
+        <v>0.4518575703266854</v>
       </c>
       <c r="F5">
-        <v>0.2707369064906118</v>
+        <v>0.2771362769876616</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3584323639489301</v>
+        <v>0.3372887961726861</v>
       </c>
       <c r="C6">
-        <v>0.3839945786029612</v>
+        <v>0.367293011109447</v>
       </c>
       <c r="D6">
-        <v>0.2002730478501564</v>
+        <v>0.1918266328756511</v>
       </c>
       <c r="E6">
-        <v>0.4475187681540925</v>
+        <v>0.4379801740668761</v>
       </c>
       <c r="F6">
-        <v>0.2780688952452576</v>
+        <v>0.289203773041539</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.364459496889083</v>
+        <v>0.3465491651461942</v>
       </c>
       <c r="C7">
-        <v>0.4106453173185426</v>
+        <v>0.3849987877080897</v>
       </c>
       <c r="D7">
-        <v>0.2107924313882408</v>
+        <v>0.2040158891459988</v>
       </c>
       <c r="E7">
-        <v>0.4591213689083103</v>
+        <v>0.4516811808632266</v>
       </c>
       <c r="F7">
-        <v>0.2906174726197602</v>
+        <v>0.3006242113637049</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4143658927697875</v>
+        <v>0.3728115640212805</v>
       </c>
       <c r="C8">
-        <v>0.4310987738402203</v>
+        <v>0.4172293592727421</v>
       </c>
       <c r="D8">
-        <v>0.221430687247661</v>
+        <v>0.2174429248205509</v>
       </c>
       <c r="E8">
-        <v>0.4705642222350324</v>
+        <v>0.4663077576242443</v>
       </c>
       <c r="F8">
-        <v>0.2329219787203619</v>
+        <v>0.2915344481050866</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3869142407525709</v>
+        <v>0.4140746927647911</v>
       </c>
       <c r="C9">
-        <v>0.4001865847611734</v>
+        <v>0.4327887006433242</v>
       </c>
       <c r="D9">
-        <v>0.1924388048854656</v>
+        <v>0.2237006186653438</v>
       </c>
       <c r="E9">
-        <v>0.4386784755210422</v>
+        <v>0.4729699976376343</v>
       </c>
       <c r="F9">
-        <v>0.2168174179053887</v>
+        <v>0.2387302033153843</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3617893501639269</v>
+        <v>0.3853625486457603</v>
       </c>
       <c r="C10">
-        <v>0.3734161284103805</v>
+        <v>0.4009980026591189</v>
       </c>
       <c r="D10">
-        <v>0.1744359538854561</v>
+        <v>0.1935302347147137</v>
       </c>
       <c r="E10">
-        <v>0.4176553051087178</v>
+        <v>0.4399207141232539</v>
       </c>
       <c r="F10">
-        <v>0.2199606530304394</v>
+        <v>0.2225500727871226</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3719529320823554</v>
+        <v>0.3626069129865366</v>
       </c>
       <c r="C11">
-        <v>0.3812107115717386</v>
+        <v>0.3740635702753569</v>
       </c>
       <c r="D11">
-        <v>0.1830055333568115</v>
+        <v>0.1753426339092577</v>
       </c>
       <c r="E11">
-        <v>0.4277914601260893</v>
+        <v>0.4187393388604153</v>
       </c>
       <c r="F11">
-        <v>0.2241397295910946</v>
+        <v>0.2207534083381827</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
